--- a/assignment2/results/O3sheet.xlsx
+++ b/assignment2/results/O3sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\diogenes\Efficient_lab\assignment2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5045BE3-D499-4C0B-A563-957F596C7700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A0790-2C31-4143-8ADC-D96A182C1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="O3.xlsx" sheetId="1" r:id="rId1"/>
@@ -415,21 +415,21 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,15 +458,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.31</v>
+        <v>2.52</v>
       </c>
       <c r="C2" s="2">
-        <v>5.1597039999999995E-4</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="D2">
         <v>207711</v>
@@ -484,15 +484,15 @@
         <v>2294.5023000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1200</v>
       </c>
       <c r="B3">
-        <v>8.91</v>
+        <v>18.7</v>
       </c>
       <c r="C3">
-        <v>0.06</v>
+        <v>7.91</v>
       </c>
       <c r="D3">
         <v>180779900</v>
@@ -510,15 +510,15 @@
         <v>2294.5529999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2200</v>
       </c>
       <c r="B4">
-        <v>10.02</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="D4">
         <v>606192500</v>
@@ -536,15 +536,15 @@
         <v>2294.5781000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3200</v>
       </c>
       <c r="B5">
-        <v>10.06</v>
+        <v>17.16</v>
       </c>
       <c r="C5">
-        <v>0.08</v>
+        <v>85.87</v>
       </c>
       <c r="D5">
         <v>1281666000</v>
@@ -562,15 +562,15 @@
         <v>2294.509</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4200</v>
       </c>
       <c r="B6">
-        <v>10.11</v>
+        <v>17.55</v>
       </c>
       <c r="C6">
-        <v>0.09</v>
+        <v>93.34</v>
       </c>
       <c r="D6">
         <v>2207440000</v>
@@ -582,7 +582,7 @@
         <v>2848.7550999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>2839714</v>
+        <v>2839.7139999999999</v>
       </c>
       <c r="H6" s="3">
         <v>2294.5684999999999</v>
